--- a/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.226704588313105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.5829863747228978</v>
+        <v>-0.582986374722897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1177151609580733</v>
@@ -649,7 +649,7 @@
         <v>0.8285914725563682</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1434103054265886</v>
+        <v>-0.1434103054265884</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.85398903222025</v>
+        <v>-1.859729096375056</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.132073372184441</v>
+        <v>-2.251481365846921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1552626164208262</v>
+        <v>0.118815490051174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.42925649767254</v>
+        <v>-3.510220851985499</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4121940694522582</v>
+        <v>-0.4256277117411077</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4527200596221228</v>
+        <v>-0.4707920095911271</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06089467356774048</v>
+        <v>0.009782332552381739</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5811360746256411</v>
+        <v>-0.5965748443008235</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.617800006480668</v>
+        <v>2.535040837355038</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.004640599994691</v>
+        <v>1.841457134637589</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.538281171648667</v>
+        <v>4.695901486484388</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.524980060019572</v>
+        <v>1.45124555270478</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.266843515131138</v>
+        <v>1.203501197508369</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7924496934969182</v>
+        <v>0.7775086344686143</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.604653508202628</v>
+        <v>2.944292576972002</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5734704700991917</v>
+        <v>0.566198143000848</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.3526190935371092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.043773718355915</v>
+        <v>1.043773718355914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2904281926258466</v>
@@ -749,7 +749,7 @@
         <v>-0.09706039135080476</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4314399569124955</v>
+        <v>0.431439956912495</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.101843312960128</v>
+        <v>-3.063474319825143</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3444725013936018</v>
+        <v>-0.1897333093883186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.221007553492963</v>
+        <v>-2.209602702487539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4953071977299335</v>
+        <v>-0.6152714937795777</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.596105088064928</v>
+        <v>-0.6047590007952089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09656585715447498</v>
+        <v>-0.1038729381290736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4752203498557903</v>
+        <v>-0.4721173455729816</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.172254503814859</v>
+        <v>-0.2129508328671796</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7070830288384853</v>
+        <v>0.8614961154373889</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.586113829483502</v>
+        <v>3.476410469835305</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.364939562550275</v>
+        <v>1.392014984445898</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.585934985166416</v>
+        <v>2.587030255305712</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2783112224943664</v>
+        <v>0.3464326959500151</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.810109677944289</v>
+        <v>1.606777496223407</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4919456550183208</v>
+        <v>0.5173825517116174</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.548060709411488</v>
+        <v>1.480053051434687</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.77804724474575</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1562443757592853</v>
+        <v>0.156244375759286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06526267996252655</v>
@@ -849,7 +849,7 @@
         <v>0.8066003642637157</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.02763526692975404</v>
+        <v>0.02763526692975416</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.997941322326134</v>
+        <v>-2.083444456456272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.536476237751952</v>
+        <v>-3.803841934128497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.308128983170847</v>
+        <v>-0.2067087677241983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.330855318673123</v>
+        <v>-2.550466945441899</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4873412709678981</v>
+        <v>-0.4713543308522329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7448707021636236</v>
+        <v>-0.7328898136756528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1252350996783975</v>
+        <v>-0.1177562837827726</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3437097347338497</v>
+        <v>-0.3542283811314883</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.329490760008348</v>
+        <v>2.239853685345053</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3810113350210349</v>
+        <v>0.1400810016457363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.06557820706146</v>
+        <v>3.651260329960907</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.663024364502232</v>
+        <v>2.706333684472179</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.043353308162801</v>
+        <v>1.003553609359797</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1783593095411885</v>
+        <v>0.1770627978090767</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.065012690475362</v>
+        <v>2.625393135007986</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6948083521482755</v>
+        <v>0.6839662363657619</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.1007703172681669</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.7504238232506877</v>
+        <v>0.7504238232506875</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.143684951289384</v>
+        <v>-1.201803683037509</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.524571882308745</v>
+        <v>-1.475982986348827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.331623589985228</v>
+        <v>-1.306284992322647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.02930891463777481</v>
+        <v>0.1257734195694215</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2850372805222056</v>
+        <v>-0.3037307237713288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3466961997607788</v>
+        <v>-0.3330166683965001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4130882277613974</v>
+        <v>-0.3901828614257714</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03147729731933534</v>
+        <v>0.0007286231317556905</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.700956301708461</v>
+        <v>2.643963000831158</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.290745022127198</v>
+        <v>2.099749678579417</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.883605760370479</v>
+        <v>1.839045262614849</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.523787226627717</v>
+        <v>3.497518653067935</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.185245598449344</v>
+        <v>1.142484156726699</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8997774579824789</v>
+        <v>0.744426061010188</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.083875767295033</v>
+        <v>1.106382429412133</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.180672099982876</v>
+        <v>2.254935327476398</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9472627419751101</v>
+        <v>-0.993157796127605</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6872595287366307</v>
+        <v>-0.6917919749086543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2257111256789033</v>
+        <v>-0.2477481565013739</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3057972226509261</v>
+        <v>-0.2754082206866175</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2400634491457199</v>
+        <v>-0.2496771434645277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.178961817009154</v>
+        <v>-0.1802236671376111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.07592768535687815</v>
+        <v>-0.07916097729019855</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.07703792918771739</v>
+        <v>-0.07296908073501127</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.067872058499471</v>
+        <v>0.956345892088196</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.216389860108247</v>
+        <v>1.279846762204058</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.704290601889413</v>
+        <v>1.675952981604063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.765726594477638</v>
+        <v>1.71527490056979</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3751108846588477</v>
+        <v>0.3211167087586712</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4355181877202106</v>
+        <v>0.4578717285484155</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6979683810394143</v>
+        <v>0.7027772095247505</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.592546421829852</v>
+        <v>0.5866569342597613</v>
       </c>
     </row>
     <row r="19">
